--- a/src/schema/clients테이블.xlsx
+++ b/src/schema/clients테이블.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\JavaWorkSpace\1st_Project\src\schema\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D2333D-39F4-453F-A4C6-56FF1014FAD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="108" windowWidth="16776" windowHeight="5592"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="103">
   <si>
     <t>clients_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,12 +76,303 @@
   </si>
   <si>
     <t>n02</t>
+  </si>
+  <si>
+    <t>hospital01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital02</t>
+  </si>
+  <si>
+    <t>hospital03</t>
+  </si>
+  <si>
+    <t>hospital04</t>
+  </si>
+  <si>
+    <t>hospital05</t>
+  </si>
+  <si>
+    <t>hospital06</t>
+  </si>
+  <si>
+    <t>hospital07</t>
+  </si>
+  <si>
+    <t>hospital08</t>
+  </si>
+  <si>
+    <t>hospital09</t>
+  </si>
+  <si>
+    <t>hospital10</t>
+  </si>
+  <si>
+    <t>hospital11</t>
+  </si>
+  <si>
+    <t>hospital12</t>
+  </si>
+  <si>
+    <t>hospital13</t>
+  </si>
+  <si>
+    <t>hospital14</t>
+  </si>
+  <si>
+    <t>hospital15</t>
+  </si>
+  <si>
+    <t>hospital16</t>
+  </si>
+  <si>
+    <t>hospital17</t>
+  </si>
+  <si>
+    <t>hospital18</t>
+  </si>
+  <si>
+    <t>hospital19</t>
+  </si>
+  <si>
+    <t>hospital20</t>
+  </si>
+  <si>
+    <t>hospital21</t>
+  </si>
+  <si>
+    <t>hospital22</t>
+  </si>
+  <si>
+    <t>hospital23</t>
+  </si>
+  <si>
+    <t>hospital24</t>
+  </si>
+  <si>
+    <t>hospital25</t>
+  </si>
+  <si>
+    <t>hospital26</t>
+  </si>
+  <si>
+    <t>hospital27</t>
+  </si>
+  <si>
+    <t>hospital28</t>
+  </si>
+  <si>
+    <t>hospital29</t>
+  </si>
+  <si>
+    <t>hospital30</t>
+  </si>
+  <si>
+    <t>hospital31</t>
+  </si>
+  <si>
+    <t>hospital32</t>
+  </si>
+  <si>
+    <t>hospital33</t>
+  </si>
+  <si>
+    <t>hospital34</t>
+  </si>
+  <si>
+    <t>hospital35</t>
+  </si>
+  <si>
+    <t>hospital36</t>
+  </si>
+  <si>
+    <t>hospital37</t>
+  </si>
+  <si>
+    <t>hospital38</t>
+  </si>
+  <si>
+    <t>hospital39</t>
+  </si>
+  <si>
+    <t>hospital40</t>
+  </si>
+  <si>
+    <t>hospital41</t>
+  </si>
+  <si>
+    <t>hospital42</t>
+  </si>
+  <si>
+    <t>hospital43</t>
+  </si>
+  <si>
+    <t>hospital44</t>
+  </si>
+  <si>
+    <t>hospital45</t>
+  </si>
+  <si>
+    <t>hospital46</t>
+  </si>
+  <si>
+    <t>hospital47</t>
+  </si>
+  <si>
+    <t>hospital48</t>
+  </si>
+  <si>
+    <t>hospital49</t>
+  </si>
+  <si>
+    <t>hospital50</t>
+  </si>
+  <si>
+    <t>hospital51</t>
+  </si>
+  <si>
+    <t>hospital52</t>
+  </si>
+  <si>
+    <t>hospital53</t>
+  </si>
+  <si>
+    <t>hospital54</t>
+  </si>
+  <si>
+    <t>hospital55</t>
+  </si>
+  <si>
+    <t>hospital56</t>
+  </si>
+  <si>
+    <t>강남구</t>
+  </si>
+  <si>
+    <t>강동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동구</t>
+  </si>
+  <si>
+    <t>강북구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강서구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강서구</t>
+  </si>
+  <si>
+    <t>관악구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관악구</t>
+  </si>
+  <si>
+    <t>광진구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광진구</t>
+  </si>
+  <si>
+    <t>구로구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구로구</t>
+  </si>
+  <si>
+    <t>금천구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금천구</t>
+  </si>
+  <si>
+    <t>노원구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노원구</t>
+  </si>
+  <si>
+    <t>도봉구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동대문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동대문구</t>
+  </si>
+  <si>
+    <t>동작구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작구</t>
+  </si>
+  <si>
+    <t>마포구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서대문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성북구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송파구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양천구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영등포구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용산구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은평구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중랑구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,6 +426,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -176,7 +476,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,9 +509,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,6 +561,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,11 +753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -531,6 +865,790 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -538,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -551,7 +1669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/src/schema/clients테이블.xlsx
+++ b/src/schema/clients테이블.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\JavaWorkSpace\1st_Project\src\schema\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19 pj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D2333D-39F4-453F-A4C6-56FF1014FAD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B24CB285-C60E-4DFA-AA50-C0AB0EAF8FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="177">
   <si>
     <t>clients_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,229 @@
   <si>
     <t>중랑구</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ptest01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptest02</t>
+  </si>
+  <si>
+    <t>ptest03</t>
+  </si>
+  <si>
+    <t>ptest19</t>
+  </si>
+  <si>
+    <t>ptest22</t>
+  </si>
+  <si>
+    <t>ptest27</t>
+  </si>
+  <si>
+    <t>ptest28</t>
+  </si>
+  <si>
+    <t>ptest29</t>
+  </si>
+  <si>
+    <t>ptest34</t>
+  </si>
+  <si>
+    <t>ptest38</t>
+  </si>
+  <si>
+    <t>ptest39</t>
+  </si>
+  <si>
+    <t>ptest40</t>
+  </si>
+  <si>
+    <t>ptest41</t>
+  </si>
+  <si>
+    <t>ptest42</t>
+  </si>
+  <si>
+    <t>ptest43</t>
+  </si>
+  <si>
+    <t>ptest44</t>
+  </si>
+  <si>
+    <t>ptest45</t>
+  </si>
+  <si>
+    <t>ptest46</t>
+  </si>
+  <si>
+    <t>ptest47</t>
+  </si>
+  <si>
+    <t>ptest51</t>
+  </si>
+  <si>
+    <t>ptest52</t>
+  </si>
+  <si>
+    <t>ptest53</t>
+  </si>
+  <si>
+    <t>ptest54</t>
+  </si>
+  <si>
+    <t>ptest55</t>
+  </si>
+  <si>
+    <t>ptest56</t>
+  </si>
+  <si>
+    <t>ptest04</t>
+  </si>
+  <si>
+    <t>ptest05</t>
+  </si>
+  <si>
+    <t>ptest06</t>
+  </si>
+  <si>
+    <t>ptest07</t>
+  </si>
+  <si>
+    <t>ptest08</t>
+  </si>
+  <si>
+    <t>ptest09</t>
+  </si>
+  <si>
+    <t>ptest10</t>
+  </si>
+  <si>
+    <t>ptest11</t>
+  </si>
+  <si>
+    <t>ptest12</t>
+  </si>
+  <si>
+    <t>ptest13</t>
+  </si>
+  <si>
+    <t>ptest14</t>
+  </si>
+  <si>
+    <t>ptest15</t>
+  </si>
+  <si>
+    <t>ptest16</t>
+  </si>
+  <si>
+    <t>ptest17</t>
+  </si>
+  <si>
+    <t>ptest18</t>
+  </si>
+  <si>
+    <t>ptest20</t>
+  </si>
+  <si>
+    <t>ptest21</t>
+  </si>
+  <si>
+    <t>ptest23</t>
+  </si>
+  <si>
+    <t>ptest24</t>
+  </si>
+  <si>
+    <t>ptest25</t>
+  </si>
+  <si>
+    <t>ptest26</t>
+  </si>
+  <si>
+    <t>ptest30</t>
+  </si>
+  <si>
+    <t>ptest31</t>
+  </si>
+  <si>
+    <t>ptest32</t>
+  </si>
+  <si>
+    <t>ptest33</t>
+  </si>
+  <si>
+    <t>ptest35</t>
+  </si>
+  <si>
+    <t>ptest36</t>
+  </si>
+  <si>
+    <t>ptest37</t>
+  </si>
+  <si>
+    <t>ptest48</t>
+  </si>
+  <si>
+    <t>ptest49</t>
+  </si>
+  <si>
+    <t>ptest50</t>
+  </si>
+  <si>
+    <t>ptest57</t>
+  </si>
+  <si>
+    <t>ptest58</t>
+  </si>
+  <si>
+    <t>ptest59</t>
+  </si>
+  <si>
+    <t>ptest60</t>
+  </si>
+  <si>
+    <t>ptest61</t>
+  </si>
+  <si>
+    <t>ptest62</t>
+  </si>
+  <si>
+    <t>ptest63</t>
+  </si>
+  <si>
+    <t>ptest64</t>
+  </si>
+  <si>
+    <t>ptest65</t>
+  </si>
+  <si>
+    <t>ptest66</t>
+  </si>
+  <si>
+    <t>ptest67</t>
+  </si>
+  <si>
+    <t>ptest68</t>
+  </si>
+  <si>
+    <t>ptest69</t>
+  </si>
+  <si>
+    <t>ptest70</t>
+  </si>
+  <si>
+    <t>ptest71</t>
+  </si>
+  <si>
+    <t>ptest72</t>
+  </si>
+  <si>
+    <t>ptest73</t>
   </si>
 </sst>
 </file>
@@ -754,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -792,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -873,7 +1096,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -887,7 +1110,7 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -901,7 +1124,7 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -915,7 +1138,7 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>71</v>
@@ -929,7 +1152,7 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
         <v>72</v>
@@ -943,7 +1166,7 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>72</v>
@@ -957,7 +1180,7 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>72</v>
@@ -971,7 +1194,7 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
         <v>73</v>
@@ -985,7 +1208,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
         <v>74</v>
@@ -999,7 +1222,7 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
         <v>74</v>
@@ -1013,7 +1236,7 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
@@ -1027,7 +1250,7 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
         <v>76</v>
@@ -1041,7 +1264,7 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
@@ -1055,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
         <v>78</v>
@@ -1069,7 +1292,7 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
         <v>79</v>
@@ -1083,7 +1306,7 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
@@ -1097,7 +1320,7 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>81</v>
@@ -1111,7 +1334,7 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
         <v>81</v>
@@ -1125,7 +1348,7 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
         <v>82</v>
@@ -1139,7 +1362,7 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
@@ -1153,7 +1376,7 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
         <v>83</v>
@@ -1167,7 +1390,7 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
         <v>84</v>
@@ -1181,7 +1404,7 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
         <v>84</v>
@@ -1195,7 +1418,7 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
         <v>84</v>
@@ -1209,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
         <v>84</v>
@@ -1223,7 +1446,7 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
         <v>85</v>
@@ -1237,7 +1460,7 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
         <v>85</v>
@@ -1251,7 +1474,7 @@
         <v>41</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
         <v>86</v>
@@ -1265,7 +1488,7 @@
         <v>42</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
         <v>87</v>
@@ -1279,7 +1502,7 @@
         <v>43</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
         <v>87</v>
@@ -1293,7 +1516,7 @@
         <v>44</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
         <v>88</v>
@@ -1307,7 +1530,7 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
         <v>88</v>
@@ -1321,7 +1544,7 @@
         <v>46</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
         <v>88</v>
@@ -1335,7 +1558,7 @@
         <v>47</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
         <v>89</v>
@@ -1349,7 +1572,7 @@
         <v>48</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
         <v>90</v>
@@ -1363,7 +1586,7 @@
         <v>49</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
         <v>91</v>
@@ -1377,7 +1600,7 @@
         <v>50</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
         <v>91</v>
@@ -1391,7 +1614,7 @@
         <v>51</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
         <v>91</v>
@@ -1405,7 +1628,7 @@
         <v>52</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
         <v>92</v>
@@ -1419,7 +1642,7 @@
         <v>53</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -1433,7 +1656,7 @@
         <v>54</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
         <v>93</v>
@@ -1447,7 +1670,7 @@
         <v>55</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
         <v>94</v>
@@ -1461,7 +1684,7 @@
         <v>56</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
         <v>94</v>
@@ -1475,7 +1698,7 @@
         <v>57</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
         <v>95</v>
@@ -1489,7 +1712,7 @@
         <v>58</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
         <v>96</v>
@@ -1503,7 +1726,7 @@
         <v>59</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
         <v>97</v>
@@ -1517,7 +1740,7 @@
         <v>60</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
         <v>97</v>
@@ -1531,7 +1754,7 @@
         <v>61</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
         <v>97</v>
@@ -1545,7 +1768,7 @@
         <v>62</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
         <v>97</v>
@@ -1559,7 +1782,7 @@
         <v>63</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
         <v>97</v>
@@ -1573,7 +1796,7 @@
         <v>64</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
         <v>98</v>
@@ -1587,7 +1810,7 @@
         <v>65</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
         <v>99</v>
@@ -1601,7 +1824,7 @@
         <v>66</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
         <v>100</v>
@@ -1615,7 +1838,7 @@
         <v>67</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
         <v>101</v>
@@ -1629,7 +1852,7 @@
         <v>68</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
         <v>102</v>
@@ -1643,15 +1866,1038 @@
         <v>69</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>150</v>
+      </c>
+      <c r="B93" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>153</v>
+      </c>
+      <c r="B96" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" t="s">
+        <v>155</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>159</v>
+      </c>
+      <c r="B113" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="s">
+        <v>124</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>160</v>
+      </c>
+      <c r="B120" t="s">
+        <v>160</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>161</v>
+      </c>
+      <c r="B121" t="s">
+        <v>161</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>162</v>
+      </c>
+      <c r="B122" t="s">
+        <v>162</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>163</v>
+      </c>
+      <c r="B123" t="s">
+        <v>163</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>164</v>
+      </c>
+      <c r="B124" t="s">
+        <v>164</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>165</v>
+      </c>
+      <c r="B125" t="s">
+        <v>165</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>166</v>
+      </c>
+      <c r="B126" t="s">
+        <v>166</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>167</v>
+      </c>
+      <c r="B127" t="s">
+        <v>167</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>168</v>
+      </c>
+      <c r="B128" t="s">
+        <v>168</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>169</v>
+      </c>
+      <c r="B129" t="s">
+        <v>169</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>170</v>
+      </c>
+      <c r="B130" t="s">
+        <v>170</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" t="s">
+        <v>171</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>172</v>
+      </c>
+      <c r="B132" t="s">
+        <v>172</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>173</v>
+      </c>
+      <c r="B133" t="s">
+        <v>173</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>174</v>
+      </c>
+      <c r="B134" t="s">
+        <v>174</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>175</v>
+      </c>
+      <c r="B135" t="s">
+        <v>175</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>176</v>
+      </c>
+      <c r="B136" t="s">
+        <v>176</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
